--- a/06-최종산출물/api 정의서v0.51.xlsx
+++ b/06-최종산출물/api 정의서v0.51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F753121A-8F74-491E-AC97-1EA1C851E477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E858E6-53CF-4474-96AA-BFAAC22BAE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="253">
   <si>
     <t>Header</t>
   </si>
@@ -2561,10 +2561,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>userChallengeGetByUserIdAndChallengeId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4303,120 +4299,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>미구현</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>id</t>
     </r>
     <r>
@@ -6520,142 +6402,6 @@
     "id": 0,
     "userId": 0
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId, customChallengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -8728,12 +8474,360 @@
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 실패, int 5 = 다른 공식챌린지 참여중이라 실패,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId, customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, int 4 = 참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 초과로 실패,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8820,7 +8914,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -8828,33 +8922,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="3"/>
+      <name val="굴림"/>
+      <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -9158,7 +9240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9251,36 +9333,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9292,12 +9346,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9337,6 +9385,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9557,8 +9645,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:I69"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9580,67 +9668,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="53" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="54" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="50"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -9673,7 +9761,7 @@
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -9684,7 +9772,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -9704,7 +9792,7 @@
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
@@ -9715,7 +9803,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
@@ -9733,7 +9821,7 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="23" t="s">
         <v>40</v>
       </c>
@@ -9744,7 +9832,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -9764,7 +9852,7 @@
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
@@ -9775,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>5</v>
@@ -9797,7 +9885,7 @@
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="25" t="s">
         <v>43</v>
       </c>
@@ -9808,7 +9896,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>5</v>
@@ -9828,7 +9916,7 @@
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -9861,7 +9949,7 @@
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
@@ -9872,7 +9960,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>5</v>
@@ -9892,7 +9980,7 @@
       <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
@@ -9903,7 +9991,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>5</v>
@@ -9921,7 +10009,7 @@
       <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
@@ -9952,7 +10040,7 @@
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="23" t="s">
         <v>60</v>
       </c>
@@ -9983,7 +10071,7 @@
       <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
@@ -9994,7 +10082,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>5</v>
@@ -10014,7 +10102,7 @@
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="23" t="s">
         <v>60</v>
       </c>
@@ -10045,7 +10133,7 @@
       <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="23" t="s">
         <v>64</v>
       </c>
@@ -10056,7 +10144,7 @@
         <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>5</v>
@@ -10076,7 +10164,7 @@
       <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="24" t="s">
         <v>75</v>
       </c>
@@ -10087,7 +10175,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>5</v>
@@ -10109,7 +10197,7 @@
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="25" t="s">
         <v>74</v>
       </c>
@@ -10120,7 +10208,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>5</v>
@@ -10140,7 +10228,7 @@
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -10173,7 +10261,7 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="23" t="s">
         <v>81</v>
       </c>
@@ -10184,7 +10272,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>5</v>
@@ -10204,7 +10292,7 @@
       <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="23" t="s">
         <v>84</v>
       </c>
@@ -10233,7 +10321,7 @@
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="23" t="s">
         <v>86</v>
       </c>
@@ -10244,7 +10332,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>5</v>
@@ -10264,7 +10352,7 @@
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="24" t="s">
         <v>90</v>
       </c>
@@ -10275,7 +10363,7 @@
         <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>5</v>
@@ -10285,7 +10373,7 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="4" t="s">
@@ -10297,7 +10385,7 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="25" t="s">
         <v>98</v>
       </c>
@@ -10308,7 +10396,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>5</v>
@@ -10320,7 +10408,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="9"/>
       <c r="K24" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L24" s="32" t="s">
         <v>33</v>
@@ -10328,7 +10416,7 @@
       <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -10341,7 +10429,7 @@
         <v>101</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>30</v>
@@ -10352,18 +10440,16 @@
         <v>103</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="5" t="s">
-        <v>172</v>
+      <c r="K25" s="56" t="s">
+        <v>250</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="34" t="s">
-        <v>173</v>
-      </c>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="23" t="s">
         <v>104</v>
       </c>
@@ -10374,7 +10460,7 @@
         <v>105</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>5</v>
@@ -10394,7 +10480,7 @@
       <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="23" t="s">
         <v>107</v>
       </c>
@@ -10405,7 +10491,7 @@
         <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>5</v>
@@ -10423,7 +10509,7 @@
       <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="23" t="s">
         <v>110</v>
       </c>
@@ -10434,13 +10520,13 @@
         <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="13"/>
@@ -10454,7 +10540,7 @@
       <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="23" t="s">
         <v>113</v>
       </c>
@@ -10465,7 +10551,7 @@
         <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>5</v>
@@ -10485,24 +10571,24 @@
       <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
@@ -10516,9 +10602,9 @@
       <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -10527,7 +10613,7 @@
         <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>5</v>
@@ -10537,7 +10623,7 @@
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="4" t="s">
@@ -10549,9 +10635,9 @@
       <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>7</v>
@@ -10560,7 +10646,7 @@
         <v>105</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>5</v>
@@ -10580,11 +10666,11 @@
       <c r="M32" s="33"/>
     </row>
     <row r="33" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="39" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -10593,7 +10679,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>30</v>
@@ -10601,7 +10687,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="19"/>
       <c r="I33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="5" t="s">
@@ -10613,18 +10699,18 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>5</v>
@@ -10636,7 +10722,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
       <c r="K34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>33</v>
@@ -10644,18 +10730,18 @@
       <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:13" ht="285" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>5</v>
@@ -10665,7 +10751,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>33</v>
@@ -10673,18 +10759,18 @@
       <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>5</v>
@@ -10696,7 +10782,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="2"/>
       <c r="K36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>33</v>
@@ -10704,30 +10790,30 @@
       <c r="M36" s="33"/>
     </row>
     <row r="37" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
       <c r="J37" s="19"/>
       <c r="K37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>33</v>
@@ -10735,18 +10821,18 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>5</v>
@@ -10756,7 +10842,7 @@
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="4" t="s">
@@ -10768,18 +10854,18 @@
       <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>5</v>
@@ -10799,20 +10885,20 @@
       <c r="M39" s="33"/>
     </row>
     <row r="40" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>30</v>
@@ -10820,32 +10906,30 @@
       <c r="G40" s="21"/>
       <c r="H40" s="19"/>
       <c r="I40" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="5" t="s">
-        <v>172</v>
+      <c r="K40" s="56" t="s">
+        <v>252</v>
       </c>
       <c r="L40" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="34" t="s">
-        <v>173</v>
-      </c>
+      <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>5</v>
@@ -10857,7 +10941,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="2"/>
       <c r="K41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>33</v>
@@ -10865,18 +10949,18 @@
       <c r="M41" s="33"/>
     </row>
     <row r="42" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>5</v>
@@ -10886,7 +10970,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="2"/>
       <c r="K42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>33</v>
@@ -10894,30 +10978,30 @@
       <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="13"/>
       <c r="J43" s="2"/>
       <c r="K43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>33</v>
@@ -10925,18 +11009,18 @@
       <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>5</v>
@@ -10956,51 +11040,49 @@
       <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
-      <c r="B45" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="36" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="38" t="s">
+      <c r="D45" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="L45" s="44" t="s">
+      <c r="G45" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="62"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="L45" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="34" t="s">
-        <v>116</v>
-      </c>
+      <c r="M45" s="67"/>
     </row>
     <row r="46" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>5</v>
@@ -11010,7 +11092,7 @@
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="4" t="s">
@@ -11022,18 +11104,18 @@
       <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>5</v>
@@ -11053,20 +11135,20 @@
       <c r="M47" s="33"/>
     </row>
     <row r="48" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>30</v>
@@ -11074,11 +11156,11 @@
       <c r="G48" s="21"/>
       <c r="H48" s="19"/>
       <c r="I48" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L48" s="32" t="s">
         <v>33</v>
@@ -11086,18 +11168,18 @@
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>5</v>
@@ -11109,7 +11191,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
       <c r="K49" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>33</v>
@@ -11117,18 +11199,18 @@
       <c r="M49" s="33"/>
     </row>
     <row r="50" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>5</v>
@@ -11138,7 +11220,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="2"/>
       <c r="K50" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L50" s="32" t="s">
         <v>33</v>
@@ -11146,24 +11228,24 @@
       <c r="M50" s="33"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="13"/>
@@ -11177,18 +11259,18 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>5</v>
@@ -11208,18 +11290,18 @@
       <c r="M52" s="33"/>
     </row>
     <row r="53" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>5</v>
@@ -11229,7 +11311,7 @@
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="4" t="s">
@@ -11241,18 +11323,18 @@
       <c r="M53" s="33"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>5</v>
@@ -11272,20 +11354,20 @@
       <c r="M54" s="33"/>
     </row>
     <row r="55" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
-        <v>229</v>
+      <c r="A55" s="39" t="s">
+        <v>225</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>30</v>
@@ -11293,11 +11375,11 @@
       <c r="G55" s="21"/>
       <c r="H55" s="19"/>
       <c r="I55" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L55" s="32" t="s">
         <v>33</v>
@@ -11305,18 +11387,18 @@
       <c r="M55" s="34"/>
     </row>
     <row r="56" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>5</v>
@@ -11328,7 +11410,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="2"/>
       <c r="K56" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>33</v>
@@ -11336,18 +11418,18 @@
       <c r="M56" s="33"/>
     </row>
     <row r="57" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>5</v>
@@ -11357,7 +11439,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="2"/>
       <c r="K57" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>33</v>
@@ -11365,30 +11447,30 @@
       <c r="M57" s="33"/>
     </row>
     <row r="58" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="13"/>
       <c r="J58" s="2"/>
       <c r="K58" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>33</v>
@@ -11396,18 +11478,18 @@
       <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>5</v>
@@ -11419,7 +11501,7 @@
       <c r="I59" s="28"/>
       <c r="J59" s="19"/>
       <c r="K59" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L59" s="32" t="s">
         <v>33</v>
@@ -11427,18 +11509,18 @@
       <c r="M59" s="33"/>
     </row>
     <row r="60" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>5</v>
@@ -11448,7 +11530,7 @@
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="4" t="s">
@@ -11460,18 +11542,18 @@
       <c r="M60" s="33"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>5</v>
@@ -11492,7 +11574,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A25:A32"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A40:A47"/>
@@ -11509,6 +11590,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A9:A18"/>
     <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-최종산출물/api 정의서v0.51.xlsx
+++ b/06-최종산출물/api 정의서v0.51.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\KSA-final-project\06-최종산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUIK\Documents\GitHub\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E858E6-53CF-4474-96AA-BFAAC22BAE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6C036A-FA5C-4D23-829C-40485B1BE974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="252">
   <si>
     <t>Header</t>
   </si>
@@ -8436,390 +8436,382 @@
   </si>
   <si>
     <t>{
+ * "message": "string",
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 실패, int 5 = 다른 공식챌린지 참여중이라 실패,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userId, customChallengeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, int 3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복참가로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, int 4 = 참가인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 초과로 실패,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int -1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
   "created": "2022-04-16T05:21:56.692Z",
   "customChallengeId": 0,
   "id": 0,
   "message": "string",
   "userId": 0
+  "userName": 0
+  "profileImg": 0
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[
   {
-    "created": "2022-04-16T05:22:14.857Z",
-    "customChallengeId": 0,
-    "id": 0,
-    "message": "string",
-    "userId": 0
+  "created": "2022-04-16T05:21:56.692Z",
+  "customChallengeId": 0,
+  "id": 0,
+  "message": "string",
+  "userId": 0
+  "userName": 0
+  "profileImg": 0
   }
 ]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    "created": "2022-04-16T05:22:14.857Z",
-    "customChallengeId": 0,
-    "id": 0,
-    "message": "string",
-    "userId": 0
-  }
-]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- * "message": "string",
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참가인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초과로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 실패, int 5 = 다른 공식챌린지 참여중이라 실패,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>userId, customChallengeId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">int 1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, int 3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중복참가로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, int 4 = 참가인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 초과로 실패,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> int -1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9348,6 +9340,46 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9385,46 +9417,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9645,8 +9637,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9668,45 +9660,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="54" t="s">
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="51" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="35" t="s">
         <v>31</v>
       </c>
@@ -9725,10 +9717,10 @@
       <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -9761,7 +9753,7 @@
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -9792,7 +9784,7 @@
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
@@ -9821,7 +9813,7 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="23" t="s">
         <v>40</v>
       </c>
@@ -9852,7 +9844,7 @@
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="24" t="s">
         <v>35</v>
       </c>
@@ -9885,7 +9877,7 @@
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="25" t="s">
         <v>43</v>
       </c>
@@ -9916,7 +9908,7 @@
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -9949,7 +9941,7 @@
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
@@ -9980,7 +9972,7 @@
       <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
@@ -10009,7 +10001,7 @@
       <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
@@ -10040,7 +10032,7 @@
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="23" t="s">
         <v>60</v>
       </c>
@@ -10071,7 +10063,7 @@
       <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
@@ -10102,7 +10094,7 @@
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="23" t="s">
         <v>60</v>
       </c>
@@ -10133,7 +10125,7 @@
       <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="23" t="s">
         <v>64</v>
       </c>
@@ -10164,7 +10156,7 @@
       <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="24" t="s">
         <v>75</v>
       </c>
@@ -10197,7 +10189,7 @@
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25" t="s">
         <v>74</v>
       </c>
@@ -10228,7 +10220,7 @@
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="53" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -10261,7 +10253,7 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="23" t="s">
         <v>81</v>
       </c>
@@ -10292,7 +10284,7 @@
       <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="23" t="s">
         <v>84</v>
       </c>
@@ -10321,7 +10313,7 @@
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="23" t="s">
         <v>86</v>
       </c>
@@ -10352,7 +10344,7 @@
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="24" t="s">
         <v>90</v>
       </c>
@@ -10385,7 +10377,7 @@
       <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="25" t="s">
         <v>98</v>
       </c>
@@ -10416,7 +10408,7 @@
       <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="53" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -10440,8 +10432,8 @@
         <v>103</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="56" t="s">
-        <v>250</v>
+      <c r="K25" s="39" t="s">
+        <v>247</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>33</v>
@@ -10449,7 +10441,7 @@
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="23" t="s">
         <v>104</v>
       </c>
@@ -10480,7 +10472,7 @@
       <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="23" t="s">
         <v>107</v>
       </c>
@@ -10509,7 +10501,7 @@
       <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="23" t="s">
         <v>110</v>
       </c>
@@ -10540,7 +10532,7 @@
       <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="23" t="s">
         <v>113</v>
       </c>
@@ -10571,7 +10563,7 @@
       <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="23" t="s">
         <v>116</v>
       </c>
@@ -10602,7 +10594,7 @@
       <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="24" t="s">
         <v>120</v>
       </c>
@@ -10635,7 +10627,7 @@
       <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="25" t="s">
         <v>122</v>
       </c>
@@ -10666,7 +10658,7 @@
       <c r="M32" s="33"/>
     </row>
     <row r="33" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -10699,7 +10691,7 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="23" t="s">
         <v>124</v>
       </c>
@@ -10730,7 +10722,7 @@
       <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:13" ht="285" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="23" t="s">
         <v>127</v>
       </c>
@@ -10759,7 +10751,7 @@
       <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="23" t="s">
         <v>129</v>
       </c>
@@ -10790,7 +10782,7 @@
       <c r="M36" s="33"/>
     </row>
     <row r="37" spans="1:13" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="23" t="s">
         <v>131</v>
       </c>
@@ -10821,7 +10813,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="24" t="s">
         <v>136</v>
       </c>
@@ -10854,7 +10846,7 @@
       <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="25" t="s">
         <v>137</v>
       </c>
@@ -10885,7 +10877,7 @@
       <c r="M39" s="33"/>
     </row>
     <row r="40" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -10909,8 +10901,8 @@
         <v>148</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="56" t="s">
-        <v>252</v>
+      <c r="K40" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="L40" s="32" t="s">
         <v>33</v>
@@ -10918,7 +10910,7 @@
       <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="23" t="s">
         <v>142</v>
       </c>
@@ -10949,7 +10941,7 @@
       <c r="M41" s="33"/>
     </row>
     <row r="42" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="23" t="s">
         <v>151</v>
       </c>
@@ -10978,7 +10970,7 @@
       <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="23" t="s">
         <v>152</v>
       </c>
@@ -11009,7 +11001,7 @@
       <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="23" t="s">
         <v>153</v>
       </c>
@@ -11040,38 +11032,38 @@
       <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="57" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F45" s="60" t="s">
+      <c r="E45" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H45" s="62"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="65" t="s">
+      <c r="H45" s="45"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="L45" s="66" t="s">
+      <c r="L45" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="67"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="46" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="24" t="s">
         <v>191</v>
       </c>
@@ -11104,7 +11096,7 @@
       <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="25" t="s">
         <v>193</v>
       </c>
@@ -11135,7 +11127,7 @@
       <c r="M47" s="33"/>
     </row>
     <row r="48" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -11168,7 +11160,7 @@
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="23" t="s">
         <v>195</v>
       </c>
@@ -11199,7 +11191,7 @@
       <c r="M49" s="33"/>
     </row>
     <row r="50" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="23" t="s">
         <v>196</v>
       </c>
@@ -11228,7 +11220,7 @@
       <c r="M50" s="33"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="23" t="s">
         <v>197</v>
       </c>
@@ -11259,7 +11251,7 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="23" t="s">
         <v>198</v>
       </c>
@@ -11290,7 +11282,7 @@
       <c r="M52" s="33"/>
     </row>
     <row r="53" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="24" t="s">
         <v>199</v>
       </c>
@@ -11323,7 +11315,7 @@
       <c r="M53" s="33"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="25" t="s">
         <v>200</v>
       </c>
@@ -11354,7 +11346,7 @@
       <c r="M54" s="33"/>
     </row>
     <row r="55" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="53" t="s">
         <v>225</v>
       </c>
       <c r="B55" s="22" t="s">
@@ -11386,8 +11378,8 @@
       </c>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="53"/>
       <c r="B56" s="23" t="s">
         <v>227</v>
       </c>
@@ -11410,15 +11402,15 @@
       <c r="I56" s="4"/>
       <c r="J56" s="2"/>
       <c r="K56" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>33</v>
       </c>
       <c r="M56" s="33"/>
     </row>
-    <row r="57" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="53"/>
       <c r="B57" s="23" t="s">
         <v>228</v>
       </c>
@@ -11439,15 +11431,15 @@
       <c r="I57" s="4"/>
       <c r="J57" s="2"/>
       <c r="K57" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>33</v>
       </c>
       <c r="M57" s="33"/>
     </row>
-    <row r="58" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="54"/>
       <c r="B58" s="23" t="s">
         <v>244</v>
       </c>
@@ -11470,15 +11462,15 @@
       <c r="I58" s="13"/>
       <c r="J58" s="2"/>
       <c r="K58" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>33</v>
       </c>
       <c r="M58" s="33"/>
     </row>
-    <row r="59" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="54"/>
       <c r="B59" s="23" t="s">
         <v>229</v>
       </c>
@@ -11501,7 +11493,7 @@
       <c r="I59" s="28"/>
       <c r="J59" s="19"/>
       <c r="K59" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L59" s="32" t="s">
         <v>33</v>
@@ -11509,7 +11501,7 @@
       <c r="M59" s="33"/>
     </row>
     <row r="60" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="24" t="s">
         <v>230</v>
       </c>
@@ -11530,7 +11522,7 @@
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="4" t="s">
@@ -11542,7 +11534,7 @@
       <c r="M60" s="33"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="25" t="s">
         <v>231</v>
       </c>
@@ -11574,6 +11566,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A25:A32"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A40:A47"/>
@@ -11590,7 +11583,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A9:A18"/>
     <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
